--- a/지재권_로그.xlsx
+++ b/지재권_로그.xlsx
@@ -8,20 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4d0200901c24a4b/바탕 화면/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="411" documentId="11_2183A423ADB06431507FB926CA18661BCE94A6A1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDD38A66-4045-4957-91DC-408BB6A05586}"/>
+  <xr:revisionPtr revIDLastSave="557" documentId="11_2183A423ADB06431507FB926CA18661BCE94A6A1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DCCEFC9-D716-4108-A9F2-56128694863C}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
+    <sheet name="한달단위" sheetId="5" r:id="rId2"/>
+    <sheet name="2주단위" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="82">
   <si>
     <t>스마트스토어</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -88,10 +103,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>`</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>실행 시간이 너무 오래 걸려 옥션, 지마켓 먼저 실행 할 예정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -278,18 +289,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>쿠팡 하루에 215개..?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인터파크 하루에 367개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신세계 하루에 220개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>15일차</t>
   </si>
   <si>
@@ -314,14 +313,6 @@
     <t>22일차</t>
   </si>
   <si>
-    <t>인터파크 7일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿠팡 30일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>23일차</t>
   </si>
   <si>
@@ -343,11 +334,41 @@
     <t>29일차</t>
   </si>
   <si>
-    <t>신세계 10일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인터파크 132개</t>
+    <t>sub 2 신세계(637/1066)
+sub 3스마트스토어(332/880)
+sub 4 11번가(476/1999)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub 2 신세계
+sub 3스마트스토어
+sub 4 11번가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub 2 신세계 완료
+sub 3스마트스토어 완료 
+sub 4 11번가(838/1999)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub 2 인터파크
+sub 3 옥션, 지마켓,오늘의집
+sub 4 11번가(838/1999)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행결과: 신세계 4일, 스마트스토어 5일, 옥션,지마켓 1시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11번가 14일정도 예상, 오늘의집 2일,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub 2 인터파크(0/1297) -&gt;(에러 나면서) 롯데온
+sub 3 오늘의집(260/297)
+sub 4 11번가(913/1999)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -355,7 +376,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,6 +466,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="50"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -505,7 +534,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -543,6 +572,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -558,7 +613,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -637,14 +692,38 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="32" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="32" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -653,7 +732,97 @@
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="3"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1090,33 +1259,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표3" displayName="표3" ref="A2:K4" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17">
-  <autoFilter ref="A2:K4" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표3" displayName="표3" ref="B2:L6" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22">
+  <autoFilter ref="B2:L6" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="날짜" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="실행한 브랜드 + 진행상황" dataDxfId="14" dataCellStyle="메모"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="스마트스토어" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="11번가" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="인터파크" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="옥션" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="지마켓" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="쿠팡" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="롯데온" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="오늘의집" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="신세계" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="날짜" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="실행한 브랜드 + 진행상황" dataDxfId="19" dataCellStyle="메모"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="스마트스토어" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="11번가" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="인터파크" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="옥션" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="지마켓" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="쿠팡" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="롯데온" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="오늘의집" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="신세계" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D0ACF9C2-9FB8-4C47-BE3B-8032777FF7E4}" name="표6" displayName="표6" ref="A1:D32" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D0ACF9C2-9FB8-4C47-BE3B-8032777FF7E4}" name="표6" displayName="표6" ref="A1:D32" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:D32" xr:uid="{D0ACF9C2-9FB8-4C47-BE3B-8032777FF7E4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4897ECC7-7423-45BB-9AED-D5995816EFE2}" name="횟수" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{5BE85465-73D0-44ED-9DF6-47F9813187F1}" name="sub2" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{B5685FAA-913B-47FF-B7BE-BCB11F869BB5}" name="sub3" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{93B09CB4-B398-454C-BC2C-0BC6E783FD01}" name="sub4" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4897ECC7-7423-45BB-9AED-D5995816EFE2}" name="횟수" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{5BE85465-73D0-44ED-9DF6-47F9813187F1}" name="sub2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{B5685FAA-913B-47FF-B7BE-BCB11F869BB5}" name="sub3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{93B09CB4-B398-454C-BC2C-0BC6E783FD01}" name="sub4" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D145FC6E-CE2A-40DF-BEEF-AB2253DCB2E8}" name="표6_23" displayName="표6_23" ref="A1:D15" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:D15" xr:uid="{D145FC6E-CE2A-40DF-BEEF-AB2253DCB2E8}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{BE787DD9-910C-471D-83A1-66FF7E9D6F0B}" name="횟수" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{9149EFEF-20C8-4483-83E1-C8A79EA72830}" name="sub2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{92766CA8-AE59-4436-9F78-A94DE9B5CD25}" name="sub3" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{1988E957-4365-4EF5-A99F-6958179AF910}" name="sub4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1443,429 +1625,623 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" customWidth="1"/>
-    <col min="2" max="2" width="58.125" customWidth="1"/>
-    <col min="3" max="3" width="49.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.375" customWidth="1"/>
-    <col min="5" max="5" width="80.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="8" max="8" width="35.75" customWidth="1"/>
-    <col min="9" max="9" width="54.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="58.125" customWidth="1"/>
+    <col min="4" max="4" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="6" max="6" width="80.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="9" max="9" width="35.75" customWidth="1"/>
+    <col min="10" max="10" width="54.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="57.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="I2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35"/>
+      <c r="B3" s="2">
         <v>45064</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>45065</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>45065</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="32">
+        <v>45066</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="34"/>
+    </row>
+    <row r="6" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="32">
+        <v>45067</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="34"/>
+    </row>
+    <row r="7" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
         <v>45068</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="K7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>45069</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>45069</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="F8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>45070</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>45071</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>45070</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>45071</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="15" t="s">
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>45072</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>45076</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>45072</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>45076</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="G12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>45077</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>45077</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="16" t="s">
+      <c r="J13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <v>45078</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>45078</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G14" t="s">
-        <v>15</v>
+      <c r="D14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="35">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45084</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="35">
+        <f>A15+1</f>
+        <v>2</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45085</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="35">
+        <f t="shared" ref="A17:A21" si="0">A16+1</f>
+        <v>3</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45086</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45087</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="35">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45088</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="35">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45089</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="35">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45090</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1878,10 +2254,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA16ADC6-8CCA-450D-9EF4-14FF4FFA03BA}">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1891,23 +2267,23 @@
     <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>32</v>
-      </c>
       <c r="D1" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>0</v>
@@ -1918,20 +2294,14 @@
       <c r="D2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="P2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>5</v>
@@ -1939,17 +2309,11 @@
       <c r="D3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="P3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>2</v>
@@ -1960,17 +2324,11 @@
       <c r="D4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="P4" t="s">
-        <v>63</v>
-      </c>
-      <c r="S4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>2</v>
@@ -1981,11 +2339,11 @@
       <c r="D5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="28"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>2</v>
@@ -1996,17 +2354,13 @@
       <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="P6" s="27">
-        <v>4.5138888888888888E-2</v>
-      </c>
-      <c r="R6" s="27">
-        <v>6.5972222222222224E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G6" s="27"/>
+      <c r="P6" s="26"/>
+      <c r="R6" s="26"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>2</v>
@@ -2017,13 +2371,10 @@
       <c r="D7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="P7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>2</v>
@@ -2035,9 +2386,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>2</v>
@@ -2049,9 +2400,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>2</v>
@@ -2063,9 +2414,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>1</v>
@@ -2077,9 +2428,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>1</v>
@@ -2091,9 +2442,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>1</v>
@@ -2105,9 +2456,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>1</v>
@@ -2119,9 +2470,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>1</v>
@@ -2133,9 +2484,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>1</v>
@@ -2149,7 +2500,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>1</v>
@@ -2163,7 +2514,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>5</v>
@@ -2177,7 +2528,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>5</v>
@@ -2191,7 +2542,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>5</v>
@@ -2205,7 +2556,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>5</v>
@@ -2219,7 +2570,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>5</v>
@@ -2233,7 +2584,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>5</v>
@@ -2247,7 +2598,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>5</v>
@@ -2261,7 +2612,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>5</v>
@@ -2275,7 +2626,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B26" s="25" t="s">
         <v>5</v>
@@ -2289,7 +2640,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>5</v>
@@ -2303,7 +2654,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>5</v>
@@ -2317,7 +2668,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>5</v>
@@ -2331,7 +2682,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>5</v>
@@ -2362,4 +2713,256 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F468C4-87BB-413C-9646-4A52BA6A62DA}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="72.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C2DD6D-7216-455A-B5F8-6A3762E648B1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>